--- a/Result.xlsx
+++ b/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enayem\Documents\DTC_katalon - V.4.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enayem\Documents\DTC_katalon - V.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{77FBD748-19AD-4FE7-BDE8-9AE97B7F1192}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E0430DD1-B6A0-43CA-94DD-D8F875156BE8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="2" tabRatio="514" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="2" firstSheet="1" tabRatio="514" windowHeight="12336" windowWidth="23016" xWindow="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12"/>
   </bookViews>
   <sheets>
     <sheet name="GM_Demo_result" r:id="rId1" sheetId="10"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="425">
   <si>
     <t>TestCase</t>
   </si>
@@ -1180,6 +1180,144 @@
   </si>
   <si>
     <t>buickdtc140849</t>
+  </si>
+  <si>
+    <t>0065500000MieFPAAZ</t>
+  </si>
+  <si>
+    <t>1 YEARS, 12,000 MILES</t>
+  </si>
+  <si>
+    <t>11/14/2023</t>
+  </si>
+  <si>
+    <t>0065500000MieFQAAZ</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>$2,648.80</t>
+  </si>
+  <si>
+    <t>0000SC12</t>
+  </si>
+  <si>
+    <t>1C4HJXEG0MW525612</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>$1,598.24</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>7 year\(s\) or 100,000 kilometers</t>
+  </si>
+  <si>
+    <t>SADCJ2EX3PA712099</t>
+  </si>
+  <si>
+    <t>$2,224.00</t>
+  </si>
+  <si>
+    <t>$155.68</t>
+  </si>
+  <si>
+    <t>$2,379.68</t>
+  </si>
+  <si>
+    <t>c140980</t>
+  </si>
+  <si>
+    <t>cartPageCalculation is not Accurate</t>
+  </si>
+  <si>
+    <t>Calculation is not matched for Checkout page</t>
+  </si>
+  <si>
+    <t>$1,646.00</t>
+  </si>
+  <si>
+    <t>c140981</t>
+  </si>
+  <si>
+    <t>Calculation is not applicable for PAY IN FULL option</t>
+  </si>
+  <si>
+    <t>$185.42</t>
+  </si>
+  <si>
+    <t>$2,834.22</t>
+  </si>
+  <si>
+    <t>oneprotectdtc140982</t>
+  </si>
+  <si>
+    <t>$1,953.28</t>
+  </si>
+  <si>
+    <t>WAUU2BF20PN039321</t>
+  </si>
+  <si>
+    <t>$3,352.40</t>
+  </si>
+  <si>
+    <t>$259.81</t>
+  </si>
+  <si>
+    <t>$3,612.21</t>
+  </si>
+  <si>
+    <t>oneprotectdtc140983</t>
+  </si>
+  <si>
+    <t>oneprotectdtc140984</t>
+  </si>
+  <si>
+    <t>platinum</t>
+  </si>
+  <si>
+    <t>5 year\(s\) or 60,000 kilometers</t>
+  </si>
+  <si>
+    <t>$1,515.00</t>
+  </si>
+  <si>
+    <t>$196.95</t>
+  </si>
+  <si>
+    <t>$1,711.95</t>
+  </si>
+  <si>
+    <t>$3,480.00</t>
+  </si>
+  <si>
+    <t>$521.13</t>
+  </si>
+  <si>
+    <t>$288.00</t>
+  </si>
+  <si>
+    <t>$37.44</t>
+  </si>
+  <si>
+    <t>$325.44</t>
+  </si>
+  <si>
+    <t>oilchange</t>
+  </si>
+  <si>
+    <t>4 year\(s\) or 96,000 kilometers</t>
+  </si>
+  <si>
+    <t>$680.00</t>
+  </si>
+  <si>
+    <t>$101.83</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1292,6 +1430,7 @@
     </xf>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1673,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AF1" sqref="AF1"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,6 +2072,154 @@
         <v>267</v>
       </c>
     </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" t="s">
+        <v>392</v>
+      </c>
+      <c r="L4" t="s">
+        <v>393</v>
+      </c>
+      <c r="M4" t="s">
+        <v>394</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>381</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" t="s">
+        <v>398</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>399</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>381</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1941,14 +2228,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365242B-62E7-41FE-A019-18561DC38DDF}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="106" zoomScaleNormal="106">
-      <selection activeCell="A3" sqref="A3:T3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="106" zoomScaleNormal="106">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2113,7 +2401,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2159,8 +2447,6 @@
       <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
       <c r="R4" t="s">
         <v>315</v>
       </c>
@@ -2168,7 +2454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2214,8 +2500,6 @@
       <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
       <c r="R5" t="s">
         <v>315</v>
       </c>
@@ -2223,7 +2507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2269,13 +2553,276 @@
       <c r="O6" t="s">
         <v>21</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
       <c r="R6" t="s">
         <v>315</v>
       </c>
       <c r="S6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>271</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>381</v>
+      </c>
+      <c r="S7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L8" t="s">
+        <v>414</v>
+      </c>
+      <c r="M8" t="s">
+        <v>415</v>
+      </c>
+      <c r="N8" t="s">
+        <v>271</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H9" t="s">
+        <v>390</v>
+      </c>
+      <c r="I9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K9" t="s">
+        <v>416</v>
+      </c>
+      <c r="L9" t="s">
+        <v>417</v>
+      </c>
+      <c r="M9" s="10">
+        <v>4001.13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>271</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>381</v>
+      </c>
+      <c r="S9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" t="s">
+        <v>418</v>
+      </c>
+      <c r="L10" t="s">
+        <v>419</v>
+      </c>
+      <c r="M10" t="s">
+        <v>420</v>
+      </c>
+      <c r="N10" t="s">
+        <v>271</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
+        <v>381</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" t="s">
+        <v>423</v>
+      </c>
+      <c r="L11" t="s">
+        <v>424</v>
+      </c>
+      <c r="M11" s="10">
+        <v>781.83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>271</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>381</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2832,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCD556-2E3D-47E1-B933-FF703C658417}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -2906,7 +3453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2952,13 +3499,278 @@
       <c r="O12" t="s">
         <v>21</v>
       </c>
-      <c r="P12"/>
-      <c r="Q12"/>
       <c r="R12" t="s">
         <v>285</v>
       </c>
       <c r="S12" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" t="s">
+        <v>381</v>
+      </c>
+      <c r="S13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
+        <v>383</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>384</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" t="s">
+        <v>383</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" t="s">
+        <v>401</v>
+      </c>
+      <c r="M15" t="s">
+        <v>402</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>403</v>
+      </c>
+      <c r="R15" t="s">
+        <v>381</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>380</v>
+      </c>
+      <c r="I16" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" t="s">
+        <v>276</v>
+      </c>
+      <c r="K16" t="s">
+        <v>404</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" t="s">
+        <v>381</v>
+      </c>
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" t="s">
+        <v>276</v>
+      </c>
+      <c r="K17" t="s">
+        <v>404</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17" t="s">
+        <v>381</v>
+      </c>
+      <c r="S17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2968,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF27B2AF-7082-404C-9F04-2E4BC1F35D6C}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3631,7 +4443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3650,7 +4462,6 @@
       <c r="F11" t="s">
         <v>174</v>
       </c>
-      <c r="G11"/>
       <c r="H11" t="s">
         <v>101</v>
       </c>
@@ -3678,18 +4489,159 @@
       <c r="P11" t="s">
         <v>282</v>
       </c>
-      <c r="Q11"/>
-      <c r="R11"/>
       <c r="S11" t="s">
         <v>248</v>
       </c>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J12" t="s">
+        <v>387</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" t="s">
+        <v>388</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>406</v>
+      </c>
+      <c r="M13" t="s">
+        <v>407</v>
+      </c>
+      <c r="N13" t="s">
+        <v>408</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>409</v>
+      </c>
+      <c r="S13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J14" t="s">
+        <v>387</v>
+      </c>
+      <c r="K14" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" t="s">
+        <v>388</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>410</v>
+      </c>
+      <c r="S14" t="s">
+        <v>381</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4091,7 +5043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E73087-E198-4E54-9512-77DD5E310F31}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -5638,7 +6590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -5681,23 +6633,12 @@
       <c r="N19" t="s">
         <v>56</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
       <c r="R19" t="s">
         <v>291</v>
       </c>
       <c r="S19" t="s">
         <v>21</v>
       </c>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
       <c r="AB19" t="s">
         <v>68</v>
       </c>
@@ -5725,9 +6666,8 @@
       <c r="AJ19" t="s">
         <v>72</v>
       </c>
-      <c r="AK19"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5770,23 +6710,12 @@
       <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
       <c r="R20" t="s">
         <v>291</v>
       </c>
       <c r="S20" t="s">
         <v>21</v>
       </c>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
       <c r="AB20" t="s">
         <v>68</v>
       </c>
@@ -5814,9 +6743,8 @@
       <c r="AJ20" t="s">
         <v>72</v>
       </c>
-      <c r="AK20"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5859,23 +6787,12 @@
       <c r="N21" t="s">
         <v>56</v>
       </c>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
       <c r="R21" t="s">
         <v>291</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
       </c>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
       <c r="AB21" t="s">
         <v>68</v>
       </c>
@@ -5903,9 +6820,8 @@
       <c r="AJ21" t="s">
         <v>72</v>
       </c>
-      <c r="AK21"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5948,23 +6864,12 @@
       <c r="N22" t="s">
         <v>56</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
       <c r="R22" t="s">
         <v>291</v>
       </c>
       <c r="S22" t="s">
         <v>21</v>
       </c>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
       <c r="AB22" t="s">
         <v>68</v>
       </c>
@@ -5992,9 +6897,8 @@
       <c r="AJ22" t="s">
         <v>72</v>
       </c>
-      <c r="AK22"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6037,23 +6941,12 @@
       <c r="N23" t="s">
         <v>56</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
       <c r="R23" t="s">
         <v>291</v>
       </c>
       <c r="S23" t="s">
         <v>21</v>
       </c>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
       <c r="AB23" t="s">
         <v>68</v>
       </c>
@@ -6081,9 +6974,8 @@
       <c r="AJ23" t="s">
         <v>72</v>
       </c>
-      <c r="AK23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -6126,23 +7018,12 @@
       <c r="N24" t="s">
         <v>56</v>
       </c>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
       <c r="R24" t="s">
         <v>291</v>
       </c>
       <c r="S24" t="s">
         <v>21</v>
       </c>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
       <c r="AB24" t="s">
         <v>68</v>
       </c>
@@ -6170,9 +7051,8 @@
       <c r="AJ24" t="s">
         <v>72</v>
       </c>
-      <c r="AK24"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -6215,23 +7095,12 @@
       <c r="N25" t="s">
         <v>56</v>
       </c>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
       <c r="R25" t="s">
         <v>291</v>
       </c>
       <c r="S25" t="s">
         <v>21</v>
       </c>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
       <c r="AB25" t="s">
         <v>68</v>
       </c>
@@ -6259,9 +7128,8 @@
       <c r="AJ25" t="s">
         <v>72</v>
       </c>
-      <c r="AK25"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -6307,7 +7175,6 @@
       <c r="O26" t="s">
         <v>321</v>
       </c>
-      <c r="P26"/>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
@@ -6317,14 +7184,6 @@
       <c r="S26" t="s">
         <v>21</v>
       </c>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
       <c r="AB26" t="s">
         <v>68</v>
       </c>
@@ -6352,9 +7211,8 @@
       <c r="AJ26" t="s">
         <v>72</v>
       </c>
-      <c r="AK26"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -6400,7 +7258,6 @@
       <c r="O27" t="s">
         <v>327</v>
       </c>
-      <c r="P27"/>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
@@ -6410,14 +7267,6 @@
       <c r="S27" t="s">
         <v>21</v>
       </c>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
       <c r="AB27" t="s">
         <v>68</v>
       </c>
@@ -6445,9 +7294,8 @@
       <c r="AJ27" t="s">
         <v>72</v>
       </c>
-      <c r="AK27"/>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -6493,7 +7341,6 @@
       <c r="O28" t="s">
         <v>331</v>
       </c>
-      <c r="P28"/>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
@@ -6503,14 +7350,6 @@
       <c r="S28" t="s">
         <v>21</v>
       </c>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
       <c r="AB28" t="s">
         <v>68</v>
       </c>
@@ -6538,9 +7377,8 @@
       <c r="AJ28" t="s">
         <v>72</v>
       </c>
-      <c r="AK28"/>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>332</v>
       </c>
@@ -6586,7 +7424,6 @@
       <c r="O29" t="s">
         <v>337</v>
       </c>
-      <c r="P29"/>
       <c r="Q29" t="s">
         <v>21</v>
       </c>
@@ -6596,14 +7433,6 @@
       <c r="S29" t="s">
         <v>21</v>
       </c>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
       <c r="AB29" t="s">
         <v>68</v>
       </c>
@@ -6631,9 +7460,8 @@
       <c r="AJ29" t="s">
         <v>72</v>
       </c>
-      <c r="AK29"/>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>209</v>
       </c>
@@ -6679,7 +7507,6 @@
       <c r="O30" t="s">
         <v>341</v>
       </c>
-      <c r="P30"/>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
@@ -6689,14 +7516,6 @@
       <c r="S30" t="s">
         <v>21</v>
       </c>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
       <c r="AB30" t="s">
         <v>68</v>
       </c>
@@ -6724,9 +7543,8 @@
       <c r="AJ30" t="s">
         <v>72</v>
       </c>
-      <c r="AK30"/>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -6772,7 +7590,6 @@
       <c r="O31" t="s">
         <v>345</v>
       </c>
-      <c r="P31"/>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
@@ -6782,14 +7599,6 @@
       <c r="S31" t="s">
         <v>21</v>
       </c>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
       <c r="AB31" t="s">
         <v>68</v>
       </c>
@@ -6817,9 +7626,8 @@
       <c r="AJ31" t="s">
         <v>72</v>
       </c>
-      <c r="AK31"/>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -6865,7 +7673,6 @@
       <c r="O32" t="s">
         <v>348</v>
       </c>
-      <c r="P32"/>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
@@ -6875,14 +7682,6 @@
       <c r="S32" t="s">
         <v>21</v>
       </c>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
       <c r="AB32" t="s">
         <v>68</v>
       </c>
@@ -6910,9 +7709,8 @@
       <c r="AJ32" t="s">
         <v>72</v>
       </c>
-      <c r="AK32"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -6958,7 +7756,6 @@
       <c r="O33" t="s">
         <v>353</v>
       </c>
-      <c r="P33"/>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
@@ -6968,14 +7765,6 @@
       <c r="S33" t="s">
         <v>21</v>
       </c>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
       <c r="AB33" t="s">
         <v>68</v>
       </c>
@@ -7003,9 +7792,8 @@
       <c r="AJ33" t="s">
         <v>72</v>
       </c>
-      <c r="AK33"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -7051,7 +7839,6 @@
       <c r="O34" t="s">
         <v>357</v>
       </c>
-      <c r="P34"/>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
@@ -7061,14 +7848,6 @@
       <c r="S34" t="s">
         <v>21</v>
       </c>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
       <c r="AB34" t="s">
         <v>68</v>
       </c>
@@ -7096,9 +7875,8 @@
       <c r="AJ34" t="s">
         <v>72</v>
       </c>
-      <c r="AK34"/>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -7144,7 +7922,6 @@
       <c r="O35" t="s">
         <v>360</v>
       </c>
-      <c r="P35"/>
       <c r="Q35" t="s">
         <v>21</v>
       </c>
@@ -7154,14 +7931,6 @@
       <c r="S35" t="s">
         <v>21</v>
       </c>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
       <c r="AB35" t="s">
         <v>68</v>
       </c>
@@ -7189,9 +7958,8 @@
       <c r="AJ35" t="s">
         <v>72</v>
       </c>
-      <c r="AK35"/>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -7237,7 +8005,6 @@
       <c r="O36" t="s">
         <v>364</v>
       </c>
-      <c r="P36"/>
       <c r="Q36" t="s">
         <v>21</v>
       </c>
@@ -7247,14 +8014,6 @@
       <c r="S36" t="s">
         <v>21</v>
       </c>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
       <c r="AB36" t="s">
         <v>68</v>
       </c>
@@ -7282,9 +8041,8 @@
       <c r="AJ36" t="s">
         <v>72</v>
       </c>
-      <c r="AK36"/>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>332</v>
       </c>
@@ -7330,7 +8088,6 @@
       <c r="O37" t="s">
         <v>367</v>
       </c>
-      <c r="P37"/>
       <c r="Q37" t="s">
         <v>21</v>
       </c>
@@ -7340,14 +8097,6 @@
       <c r="S37" t="s">
         <v>21</v>
       </c>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
       <c r="AB37" t="s">
         <v>68</v>
       </c>
@@ -7375,9 +8124,8 @@
       <c r="AJ37" t="s">
         <v>72</v>
       </c>
-      <c r="AK37"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -7423,7 +8171,6 @@
       <c r="O38" t="s">
         <v>369</v>
       </c>
-      <c r="P38"/>
       <c r="Q38" t="s">
         <v>21</v>
       </c>
@@ -7433,14 +8180,6 @@
       <c r="S38" t="s">
         <v>21</v>
       </c>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
       <c r="AB38" t="s">
         <v>68</v>
       </c>
@@ -7468,9 +8207,8 @@
       <c r="AJ38" t="s">
         <v>72</v>
       </c>
-      <c r="AK38"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -7516,7 +8254,6 @@
       <c r="O39" t="s">
         <v>373</v>
       </c>
-      <c r="P39"/>
       <c r="Q39" t="s">
         <v>21</v>
       </c>
@@ -7526,14 +8263,6 @@
       <c r="S39" t="s">
         <v>21</v>
       </c>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
       <c r="AB39" t="s">
         <v>68</v>
       </c>
@@ -7561,9 +8290,8 @@
       <c r="AJ39" t="s">
         <v>72</v>
       </c>
-      <c r="AK39"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -7609,7 +8337,6 @@
       <c r="O40" t="s">
         <v>375</v>
       </c>
-      <c r="P40"/>
       <c r="Q40" t="s">
         <v>21</v>
       </c>
@@ -7619,14 +8346,6 @@
       <c r="S40" t="s">
         <v>21</v>
       </c>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
       <c r="AB40" t="s">
         <v>68</v>
       </c>
@@ -7654,9 +8373,8 @@
       <c r="AJ40" t="s">
         <v>72</v>
       </c>
-      <c r="AK40"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>332</v>
       </c>
@@ -7702,7 +8420,6 @@
       <c r="O41" t="s">
         <v>378</v>
       </c>
-      <c r="P41"/>
       <c r="Q41" t="s">
         <v>21</v>
       </c>
@@ -7712,14 +8429,6 @@
       <c r="S41" t="s">
         <v>21</v>
       </c>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
       <c r="AB41" t="s">
         <v>68</v>
       </c>
@@ -7747,7 +8456,6 @@
       <c r="AJ41" t="s">
         <v>72</v>
       </c>
-      <c r="AK41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enayem\Documents\DTC_katalon - V.4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E0430DD1-B6A0-43CA-94DD-D8F875156BE8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8B609186-7DE4-4D5C-8CF9-09406C90B573}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="1" tabRatio="514" windowHeight="12336" windowWidth="23016" xWindow="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12"/>
+    <workbookView activeTab="5" firstSheet="2" tabRatio="514" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="GM_Demo_result" r:id="rId1" sheetId="10"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="499">
   <si>
     <t>TestCase</t>
   </si>
@@ -777,24 +777,12 @@
     <t>cadillacdtc140724</t>
   </si>
   <si>
-    <t>Vroom</t>
-  </si>
-  <si>
-    <t>WA1VXBF70PD030251</t>
-  </si>
-  <si>
     <t>24001</t>
   </si>
   <si>
-    <t>$2,707.10</t>
-  </si>
-  <si>
     <t>10/25/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">For customized initial Pay: 10% ,Monthly payment after initial pay is : 2461.0 || For 36months Remaining payment, calculation is matched in Cart page </t>
-  </si>
-  <si>
     <t>1GKS2DKL9MR277427</t>
   </si>
   <si>
@@ -834,21 +822,6 @@
     <t>cadillacdtc140760</t>
   </si>
   <si>
-    <t>$2,461.00</t>
-  </si>
-  <si>
-    <t>$172.27</t>
-  </si>
-  <si>
-    <t>$2,633.27</t>
-  </si>
-  <si>
-    <t>c140761</t>
-  </si>
-  <si>
-    <t>Total dues after initial pay is : 2387.17 || For 36 Remaining payment calculation is matched in Checkout page</t>
-  </si>
-  <si>
     <t>nissan</t>
   </si>
   <si>
@@ -1218,36 +1191,6 @@
     <t>7 year\(s\) or 100,000 kilometers</t>
   </si>
   <si>
-    <t>SADCJ2EX3PA712099</t>
-  </si>
-  <si>
-    <t>$2,224.00</t>
-  </si>
-  <si>
-    <t>$155.68</t>
-  </si>
-  <si>
-    <t>$2,379.68</t>
-  </si>
-  <si>
-    <t>c140980</t>
-  </si>
-  <si>
-    <t>cartPageCalculation is not Accurate</t>
-  </si>
-  <si>
-    <t>Calculation is not matched for Checkout page</t>
-  </si>
-  <si>
-    <t>$1,646.00</t>
-  </si>
-  <si>
-    <t>c140981</t>
-  </si>
-  <si>
-    <t>Calculation is not applicable for PAY IN FULL option</t>
-  </si>
-  <si>
     <t>$185.42</t>
   </si>
   <si>
@@ -1318,6 +1261,285 @@
   </si>
   <si>
     <t>$101.83</t>
+  </si>
+  <si>
+    <t>5GAEVBKW0MJ153984</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>$2,383.00</t>
+  </si>
+  <si>
+    <t>$244.26</t>
+  </si>
+  <si>
+    <t>2383</t>
+  </si>
+  <si>
+    <t>11/15/2023</t>
+  </si>
+  <si>
+    <t>Not applicable in Pay in Full</t>
+  </si>
+  <si>
+    <t>LRBFX2SA3LD134243</t>
+  </si>
+  <si>
+    <t>$184.30</t>
+  </si>
+  <si>
+    <t>buickdtc141001</t>
+  </si>
+  <si>
+    <t>LRBFX2SA3LD134241</t>
+  </si>
+  <si>
+    <t>$126.95</t>
+  </si>
+  <si>
+    <t>buickdtc141002</t>
+  </si>
+  <si>
+    <t>LRBFX2SA3LD134242</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>buickdtc141003</t>
+  </si>
+  <si>
+    <t>LRBFX2SA3LD134244</t>
+  </si>
+  <si>
+    <t>buickdtc141004</t>
+  </si>
+  <si>
+    <t>LRBFX2SA3LD134245</t>
+  </si>
+  <si>
+    <t>$161.12</t>
+  </si>
+  <si>
+    <t>buickdtc141005</t>
+  </si>
+  <si>
+    <t>1GKS2GKD4MR369687</t>
+  </si>
+  <si>
+    <t>$233.09</t>
+  </si>
+  <si>
+    <t>gmcdtc141006</t>
+  </si>
+  <si>
+    <t>1GKS2GKD4MR369685</t>
+  </si>
+  <si>
+    <t>$2,509.00</t>
+  </si>
+  <si>
+    <t>$163.09</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>gmcdtc141007</t>
+  </si>
+  <si>
+    <t>1GKS2GKD4MR369686</t>
+  </si>
+  <si>
+    <t>gmcdtc141008</t>
+  </si>
+  <si>
+    <t>1GKS2GKD4MR369688</t>
+  </si>
+  <si>
+    <t>gmcdtc141009</t>
+  </si>
+  <si>
+    <t>1GKS2GKD4MR369689</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>$206.99</t>
+  </si>
+  <si>
+    <t>gmcdtc141010</t>
+  </si>
+  <si>
+    <t>1GYS3GKL1MR255364</t>
+  </si>
+  <si>
+    <t>$289.26</t>
+  </si>
+  <si>
+    <t>cadillacdtc141011</t>
+  </si>
+  <si>
+    <t>1GYS3GKL1MR255362</t>
+  </si>
+  <si>
+    <t>$205.01</t>
+  </si>
+  <si>
+    <t>cadillacdtc141012</t>
+  </si>
+  <si>
+    <t>1GYS3GKL1MR255363</t>
+  </si>
+  <si>
+    <t>cadillacdtc141013</t>
+  </si>
+  <si>
+    <t>1GYS3GKL1MR255365</t>
+  </si>
+  <si>
+    <t>cadillacdtc141014</t>
+  </si>
+  <si>
+    <t>1GYS3GKL1MR255366</t>
+  </si>
+  <si>
+    <t>$260.21</t>
+  </si>
+  <si>
+    <t>cadillacdtc141015</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1GNERJKW0NJ143647</t>
+  </si>
+  <si>
+    <t>$152.52</t>
+  </si>
+  <si>
+    <t>chevroletdtc141016</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1GNERJKW0NJ143645</t>
+  </si>
+  <si>
+    <t>$103.55</t>
+  </si>
+  <si>
+    <t>chevroletdtc141017</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1GNERJKW0NJ143646</t>
+  </si>
+  <si>
+    <t>chevroletdtc141018</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1GNERJKW0NJ143648</t>
+  </si>
+  <si>
+    <t>chevroletdtc141019</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1GNERJKW0NJ143649</t>
+  </si>
+  <si>
+    <t>$131.42</t>
+  </si>
+  <si>
+    <t>chevroletdtc141020</t>
+  </si>
+  <si>
+    <t>5UX53DP03N9M29144</t>
+  </si>
+  <si>
+    <t>$4,189.04</t>
+  </si>
+  <si>
+    <t>11/17/2023</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Deductible</t>
+  </si>
+  <si>
+    <t>Liftkit</t>
+  </si>
+  <si>
+    <t>Total Due Today</t>
+  </si>
+  <si>
+    <t>Monthly payment</t>
+  </si>
+  <si>
+    <t>Total Due Today Calculation</t>
+  </si>
+  <si>
+    <t>Remaining Payments Calculation</t>
+  </si>
+  <si>
+    <t>Total Rates Calculation</t>
+  </si>
+  <si>
+    <t>1GKS2DKL0NR255756</t>
+  </si>
+  <si>
+    <t>emrannayemd2c+001@gmail.com</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>$2,874.00</t>
+  </si>
+  <si>
+    <t>$186.81</t>
+  </si>
+  <si>
+    <t>$3,060.81</t>
+  </si>
+  <si>
+    <t>$426.31</t>
+  </si>
+  <si>
+    <t>239.5</t>
+  </si>
+  <si>
+    <t>Calculation for total due today is matched</t>
+  </si>
+  <si>
+    <t>Calculation for remaining payment is matched</t>
+  </si>
+  <si>
+    <t>Calculation for total rate is matched</t>
+  </si>
+  <si>
+    <t>gmcdtc141069</t>
+  </si>
+  <si>
+    <t>11/21/2023</t>
+  </si>
+  <si>
+    <t>11/27/2023</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1549,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,8 +1578,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,6 +1598,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1409,7 +1645,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1431,6 +1667,12 @@
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1812,7 +2054,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="M5" sqref="M5"/>
@@ -1924,302 +2166,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>247</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>248</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" t="s">
-        <v>392</v>
-      </c>
-      <c r="L4" t="s">
-        <v>393</v>
-      </c>
-      <c r="M4" t="s">
-        <v>394</v>
-      </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>395</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" t="s">
-        <v>381</v>
-      </c>
-      <c r="S4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>380</v>
-      </c>
-      <c r="I5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" t="s">
-        <v>398</v>
-      </c>
-      <c r="L5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" t="s">
-        <v>398</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>399</v>
-      </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>381</v>
-      </c>
-      <c r="S5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>400</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2228,15 +2174,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365242B-62E7-41FE-A019-18561DC38DDF}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="106" zoomScaleNormal="106">
+    <sheetView workbookViewId="0" zoomScale="106" zoomScaleNormal="106">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2304,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -2314,13 +2260,13 @@
         <v>174</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I2" s="5">
         <v>2000</v>
@@ -2338,10 +2284,10 @@
         <v>881.4</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -2356,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -2366,19 +2312,19 @@
         <v>174</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I3" s="5">
         <v>10000</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K3" s="8">
         <v>288</v>
@@ -2388,10 +2334,10 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -2406,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2418,13 +2364,13 @@
         <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
         <v>52</v>
@@ -2433,22 +2379,22 @@
         <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S4" t="s">
         <v>25</v>
@@ -2459,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2471,13 +2417,13 @@
         <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I5" t="s">
         <v>52</v>
@@ -2486,22 +2432,22 @@
         <v>237</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S5" t="s">
         <v>25</v>
@@ -2512,7 +2458,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -2524,13 +2470,13 @@
         <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I6" t="s">
         <v>52</v>
@@ -2539,22 +2485,22 @@
         <v>237</v>
       </c>
       <c r="K6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M6" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N6" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S6" t="s">
         <v>21</v>
@@ -2565,7 +2511,7 @@
         <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2577,19 +2523,19 @@
         <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I7" t="s">
         <v>212</v>
       </c>
       <c r="J7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -2601,13 +2547,13 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S7" t="s">
         <v>25</v>
@@ -2618,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2630,13 +2576,13 @@
         <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="I8" t="s">
         <v>52</v>
@@ -2645,22 +2591,22 @@
         <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="L8" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="M8" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="N8" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O8" t="s">
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S8" t="s">
         <v>25</v>
@@ -2671,7 +2617,7 @@
         <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2683,37 +2629,37 @@
         <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
         <v>212</v>
       </c>
       <c r="J9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K9" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="L9" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="M9" s="10">
         <v>4001.13</v>
       </c>
       <c r="N9" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O9" t="s">
         <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S9" t="s">
         <v>25</v>
@@ -2724,7 +2670,7 @@
         <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2736,13 +2682,13 @@
         <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
         <v>52</v>
@@ -2751,22 +2697,22 @@
         <v>237</v>
       </c>
       <c r="K10" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="L10" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="M10" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="N10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O10" t="s">
         <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S10" t="s">
         <v>25</v>
@@ -2777,7 +2723,7 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2789,39 +2735,94 @@
         <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G11" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="H11" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="I11" t="s">
         <v>212</v>
       </c>
       <c r="J11" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K11" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="L11" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="M11" s="10">
         <v>781.83</v>
       </c>
       <c r="N11" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O11" t="s">
         <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" t="s">
+        <v>394</v>
+      </c>
+      <c r="L12" t="s">
+        <v>395</v>
+      </c>
+      <c r="M12" t="s">
+        <v>396</v>
+      </c>
+      <c r="N12" t="s">
+        <v>262</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12" t="s">
+        <v>498</v>
+      </c>
+      <c r="S12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3461,7 +3462,7 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
         <v>173</v>
@@ -3476,10 +3477,10 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="J12" t="s">
         <v>123</v>
@@ -3500,10 +3501,10 @@
         <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="S12" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -3514,7 +3515,7 @@
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
         <v>173</v>
@@ -3529,13 +3530,13 @@
         <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J13" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -3553,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="R13" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S13" t="s">
         <v>25</v>
@@ -3567,7 +3568,7 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
         <v>173</v>
@@ -3585,7 +3586,7 @@
         <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J14" t="s">
         <v>151</v>
@@ -3597,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N14" t="s">
         <v>23</v>
@@ -3606,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="R14" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S14" t="s">
         <v>25</v>
@@ -3620,7 +3621,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
         <v>173</v>
@@ -3638,28 +3639,28 @@
         <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J15" t="s">
         <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L15" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="M15" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="N15" t="s">
         <v>56</v>
       </c>
       <c r="O15" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="R15" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S15" t="s">
         <v>21</v>
@@ -3673,7 +3674,7 @@
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
         <v>173</v>
@@ -3688,16 +3689,16 @@
         <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K16" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="L16" t="s">
         <v>141</v>
@@ -3712,13 +3713,13 @@
         <v>21</v>
       </c>
       <c r="R16" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D17" t="s">
         <v>173</v>
@@ -3741,16 +3742,16 @@
         <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K17" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="L17" t="s">
         <v>141</v>
@@ -3764,10 +3765,8 @@
       <c r="O17" t="s">
         <v>21</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
       <c r="R17" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="S17" t="s">
         <v>25</v>
@@ -3780,7 +3779,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF27B2AF-7082-404C-9F04-2E4BC1F35D6C}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
@@ -4451,10 +4450,10 @@
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
         <v>173</v>
@@ -4466,31 +4465,31 @@
         <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K11" t="s">
         <v>151</v>
       </c>
       <c r="L11" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M11" t="s">
         <v>141</v>
       </c>
       <c r="N11" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="O11" t="s">
         <v>56</v>
       </c>
       <c r="P11" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="S11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -4501,10 +4500,10 @@
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E12" t="s">
         <v>173</v>
@@ -4516,22 +4515,22 @@
         <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J12" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K12" t="s">
         <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M12" t="s">
         <v>141</v>
       </c>
       <c r="N12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
@@ -4540,7 +4539,7 @@
         <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -4554,7 +4553,7 @@
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
         <v>173</v>
@@ -4575,22 +4574,22 @@
         <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="M13" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="N13" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="O13" t="s">
         <v>56</v>
       </c>
       <c r="P13" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="S13" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -4601,10 +4600,10 @@
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E14" t="s">
         <v>173</v>
@@ -4616,31 +4615,81 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L14" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M14" t="s">
         <v>141</v>
       </c>
       <c r="N14" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="O14" t="s">
         <v>56</v>
       </c>
       <c r="P14" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="S14" t="s">
-        <v>381</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>475</v>
+      </c>
+      <c r="M15" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" t="s">
+        <v>475</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -4650,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B9AEC3-3BAD-4F98-8E54-8E8D12C90D7F}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AK1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4679,117 +4728,246 @@
     <col min="37" max="37" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AB1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AI1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AK1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AL1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AM1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AN1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AO1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AP1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AR1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AS1" s="12" t="s">
         <v>45</v>
+      </c>
+      <c r="AT1" s="5"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O2" t="s">
+        <v>489</v>
+      </c>
+      <c r="P2" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>491</v>
+      </c>
+      <c r="R2" t="s">
+        <v>492</v>
+      </c>
+      <c r="S2" t="s">
+        <v>493</v>
+      </c>
+      <c r="T2" t="s">
+        <v>494</v>
+      </c>
+      <c r="U2" t="s">
+        <v>495</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5041,9 +5219,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E73087-E198-4E54-9512-77DD5E310F31}">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -6266,7 +6444,7 @@
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
         <v>173</v>
@@ -6281,22 +6459,22 @@
         <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
         <v>212</v>
       </c>
       <c r="J15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K15">
         <v>2095.4</v>
       </c>
       <c r="L15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N15" t="s">
         <v>23</v>
@@ -6308,7 +6486,7 @@
         <v>21</v>
       </c>
       <c r="R15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S15" t="s">
         <v>25</v>
@@ -6349,7 +6527,7 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
         <v>173</v>
@@ -6364,34 +6542,34 @@
         <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
         <v>212</v>
       </c>
       <c r="J16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K16">
         <v>2095.4</v>
       </c>
       <c r="L16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N16" t="s">
         <v>56</v>
       </c>
       <c r="O16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
       </c>
       <c r="R16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S16" t="s">
         <v>21</v>
@@ -6450,7 +6628,7 @@
         <v>211</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J17" t="s">
         <v>139</v>
@@ -6459,22 +6637,22 @@
         <v>2734.5</v>
       </c>
       <c r="L17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N17" t="s">
         <v>56</v>
       </c>
       <c r="O17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q17" t="s">
         <v>21</v>
       </c>
       <c r="R17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S17" t="s">
         <v>21</v>
@@ -6515,7 +6693,7 @@
         <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
         <v>173</v>
@@ -6530,7 +6708,7 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
         <v>161</v>
@@ -6542,22 +6720,22 @@
         <v>2297.1999999999998</v>
       </c>
       <c r="L18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N18" t="s">
         <v>56</v>
       </c>
       <c r="O18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q18" t="s">
         <v>21</v>
       </c>
       <c r="R18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S18" t="s">
         <v>21</v>
@@ -6598,7 +6776,7 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
         <v>173</v>
@@ -6613,28 +6791,28 @@
         <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I19" t="s">
         <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K19" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L19" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M19" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="N19" t="s">
         <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S19" t="s">
         <v>21</v>
@@ -6675,7 +6853,7 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
         <v>173</v>
@@ -6690,28 +6868,28 @@
         <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I20" t="s">
         <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L20" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M20" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N20" t="s">
         <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S20" t="s">
         <v>21</v>
@@ -6752,7 +6930,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
         <v>173</v>
@@ -6767,28 +6945,28 @@
         <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
         <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L21" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M21" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N21" t="s">
         <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
@@ -6829,7 +7007,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
         <v>173</v>
@@ -6844,28 +7022,28 @@
         <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
         <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K22" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L22" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M22" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="N22" t="s">
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S22" t="s">
         <v>21</v>
@@ -6906,7 +7084,7 @@
         <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
         <v>173</v>
@@ -6921,28 +7099,28 @@
         <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
         <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L23" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M23" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="N23" t="s">
         <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S23" t="s">
         <v>21</v>
@@ -6983,7 +7161,7 @@
         <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
         <v>173</v>
@@ -6998,28 +7176,28 @@
         <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
         <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K24" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L24" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M24" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="N24" t="s">
         <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S24" t="s">
         <v>21</v>
@@ -7060,7 +7238,7 @@
         <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D25" t="s">
         <v>173</v>
@@ -7075,28 +7253,28 @@
         <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
         <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L25" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M25" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="N25" t="s">
         <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S25" t="s">
         <v>21</v>
@@ -7137,7 +7315,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
         <v>202</v>
@@ -7152,34 +7330,34 @@
         <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I26" t="s">
         <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L26" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M26" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N26" t="s">
         <v>56</v>
       </c>
       <c r="O26" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
       <c r="R26" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S26" t="s">
         <v>21</v>
@@ -7220,7 +7398,7 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
         <v>202</v>
@@ -7229,7 +7407,7 @@
         <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -7244,25 +7422,25 @@
         <v>118</v>
       </c>
       <c r="K27" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L27" t="s">
         <v>141</v>
       </c>
       <c r="M27" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="N27" t="s">
         <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
       <c r="R27" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S27" t="s">
         <v>21</v>
@@ -7303,7 +7481,7 @@
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
         <v>202</v>
@@ -7312,40 +7490,40 @@
         <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I28" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L28" t="s">
         <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N28" t="s">
         <v>56</v>
       </c>
       <c r="O28" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
       <c r="R28" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S28" t="s">
         <v>21</v>
@@ -7380,13 +7558,13 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D29" t="s">
         <v>202</v>
@@ -7395,40 +7573,40 @@
         <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I29" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="J29" t="s">
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s">
         <v>56</v>
       </c>
       <c r="O29" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
       </c>
       <c r="R29" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S29" t="s">
         <v>21</v>
@@ -7469,7 +7647,7 @@
         <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D30" t="s">
         <v>202</v>
@@ -7478,13 +7656,13 @@
         <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I30" t="s">
         <v>52</v>
@@ -7493,25 +7671,25 @@
         <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L30" t="s">
         <v>141</v>
       </c>
       <c r="M30" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="N30" t="s">
         <v>56</v>
       </c>
       <c r="O30" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="R30" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S30" t="s">
         <v>21</v>
@@ -7552,7 +7730,7 @@
         <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D31" t="s">
         <v>202</v>
@@ -7561,40 +7739,40 @@
         <v>203</v>
       </c>
       <c r="F31" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L31" t="s">
         <v>141</v>
       </c>
       <c r="M31" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="N31" t="s">
         <v>56</v>
       </c>
       <c r="O31" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="R31" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S31" t="s">
         <v>21</v>
@@ -7629,13 +7807,13 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s">
         <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D32" t="s">
         <v>202</v>
@@ -7644,40 +7822,40 @@
         <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M32" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="N32" t="s">
         <v>56</v>
       </c>
       <c r="O32" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
       <c r="R32" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S32" t="s">
         <v>21</v>
@@ -7718,7 +7896,7 @@
         <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
         <v>202</v>
@@ -7733,34 +7911,34 @@
         <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I33" t="s">
         <v>212</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M33" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="N33" t="s">
         <v>56</v>
       </c>
       <c r="O33" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
       <c r="R33" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S33" t="s">
         <v>21</v>
@@ -7801,7 +7979,7 @@
         <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D34" t="s">
         <v>202</v>
@@ -7810,40 +7988,40 @@
         <v>203</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I34" t="s">
         <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L34" t="s">
         <v>141</v>
       </c>
       <c r="M34" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N34" t="s">
         <v>56</v>
       </c>
       <c r="O34" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
       <c r="R34" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S34" t="s">
         <v>21</v>
@@ -7884,7 +8062,7 @@
         <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
         <v>202</v>
@@ -7899,34 +8077,34 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I35" t="s">
         <v>212</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M35" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N35" t="s">
         <v>56</v>
       </c>
       <c r="O35" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="Q35" t="s">
         <v>21</v>
       </c>
       <c r="R35" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S35" t="s">
         <v>21</v>
@@ -7967,7 +8145,7 @@
         <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D36" t="s">
         <v>202</v>
@@ -7976,13 +8154,13 @@
         <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
       </c>
       <c r="H36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I36" t="s">
         <v>52</v>
@@ -7991,25 +8169,25 @@
         <v>118</v>
       </c>
       <c r="K36" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s">
         <v>141</v>
       </c>
       <c r="M36" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="N36" t="s">
         <v>56</v>
       </c>
       <c r="O36" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q36" t="s">
         <v>21</v>
       </c>
       <c r="R36" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S36" t="s">
         <v>21</v>
@@ -8044,13 +8222,13 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
         <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D37" t="s">
         <v>202</v>
@@ -8059,40 +8237,40 @@
         <v>203</v>
       </c>
       <c r="F37" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I37" t="s">
         <v>52</v>
       </c>
       <c r="J37" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K37" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s">
         <v>56</v>
       </c>
       <c r="O37" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="Q37" t="s">
         <v>21</v>
       </c>
       <c r="R37" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S37" t="s">
         <v>21</v>
@@ -8133,7 +8311,7 @@
         <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D38" t="s">
         <v>202</v>
@@ -8148,34 +8326,34 @@
         <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I38" t="s">
         <v>212</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K38" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M38" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s">
         <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Q38" t="s">
         <v>21</v>
       </c>
       <c r="R38" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S38" t="s">
         <v>21</v>
@@ -8216,7 +8394,7 @@
         <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D39" t="s">
         <v>202</v>
@@ -8225,13 +8403,13 @@
         <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I39" t="s">
         <v>52</v>
@@ -8240,25 +8418,25 @@
         <v>118</v>
       </c>
       <c r="K39" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s">
         <v>141</v>
       </c>
       <c r="M39" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="N39" t="s">
         <v>56</v>
       </c>
       <c r="O39" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="Q39" t="s">
         <v>21</v>
       </c>
       <c r="R39" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S39" t="s">
         <v>21</v>
@@ -8299,7 +8477,7 @@
         <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D40" t="s">
         <v>202</v>
@@ -8308,40 +8486,40 @@
         <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I40" t="s">
         <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s">
         <v>141</v>
       </c>
       <c r="M40" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N40" t="s">
         <v>56</v>
       </c>
       <c r="O40" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Q40" t="s">
         <v>21</v>
       </c>
       <c r="R40" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S40" t="s">
         <v>21</v>
@@ -8376,13 +8554,13 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s">
         <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D41" t="s">
         <v>202</v>
@@ -8391,40 +8569,40 @@
         <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I41" t="s">
         <v>52</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L41" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N41" t="s">
         <v>56</v>
       </c>
       <c r="O41" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="Q41" t="s">
         <v>21</v>
       </c>
       <c r="R41" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S41" t="s">
         <v>21</v>
@@ -8454,6 +8632,1749 @@
         <v>54</v>
       </c>
       <c r="AJ41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" t="s">
+        <v>407</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s">
+        <v>308</v>
+      </c>
+      <c r="I42" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" t="s">
+        <v>408</v>
+      </c>
+      <c r="L42" t="s">
+        <v>409</v>
+      </c>
+      <c r="M42" t="s">
+        <v>410</v>
+      </c>
+      <c r="N42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" t="s">
+        <v>411</v>
+      </c>
+      <c r="S42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" t="s">
+        <v>407</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J43" t="s">
+        <v>267</v>
+      </c>
+      <c r="K43" t="s">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s">
+        <v>414</v>
+      </c>
+      <c r="M43" t="s">
+        <v>285</v>
+      </c>
+      <c r="N43" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" t="s">
+        <v>411</v>
+      </c>
+      <c r="S43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>308</v>
+      </c>
+      <c r="I44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" t="s">
+        <v>248</v>
+      </c>
+      <c r="K44" t="s">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s">
+        <v>417</v>
+      </c>
+      <c r="M44" t="s">
+        <v>363</v>
+      </c>
+      <c r="N44" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" t="s">
+        <v>411</v>
+      </c>
+      <c r="S44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>419</v>
+      </c>
+      <c r="D45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
+        <v>308</v>
+      </c>
+      <c r="I45" t="s">
+        <v>420</v>
+      </c>
+      <c r="J45" t="s">
+        <v>248</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" t="s">
+        <v>363</v>
+      </c>
+      <c r="N45" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" t="s">
+        <v>411</v>
+      </c>
+      <c r="S45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>422</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>308</v>
+      </c>
+      <c r="I46" t="s">
+        <v>420</v>
+      </c>
+      <c r="J46" t="s">
+        <v>248</v>
+      </c>
+      <c r="K46" t="s">
+        <v>283</v>
+      </c>
+      <c r="L46" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" t="s">
+        <v>285</v>
+      </c>
+      <c r="N46" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" t="s">
+        <v>411</v>
+      </c>
+      <c r="S46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>308</v>
+      </c>
+      <c r="I47" t="s">
+        <v>420</v>
+      </c>
+      <c r="J47" t="s">
+        <v>248</v>
+      </c>
+      <c r="K47" t="s">
+        <v>362</v>
+      </c>
+      <c r="L47" t="s">
+        <v>425</v>
+      </c>
+      <c r="M47" t="s">
+        <v>363</v>
+      </c>
+      <c r="N47" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" t="s">
+        <v>411</v>
+      </c>
+      <c r="S47" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>427</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>308</v>
+      </c>
+      <c r="I48" t="s">
+        <v>212</v>
+      </c>
+      <c r="J48" t="s">
+        <v>267</v>
+      </c>
+      <c r="K48" t="s">
+        <v>309</v>
+      </c>
+      <c r="L48" t="s">
+        <v>428</v>
+      </c>
+      <c r="M48" t="s">
+        <v>311</v>
+      </c>
+      <c r="N48" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" t="s">
+        <v>411</v>
+      </c>
+      <c r="S48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s">
+        <v>248</v>
+      </c>
+      <c r="K49" t="s">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s">
+        <v>432</v>
+      </c>
+      <c r="M49" t="s">
+        <v>433</v>
+      </c>
+      <c r="N49" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" t="s">
+        <v>411</v>
+      </c>
+      <c r="S49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" t="s">
+        <v>315</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s">
+        <v>308</v>
+      </c>
+      <c r="I50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s">
+        <v>248</v>
+      </c>
+      <c r="K50" t="s">
+        <v>431</v>
+      </c>
+      <c r="L50" t="s">
+        <v>141</v>
+      </c>
+      <c r="M50" t="s">
+        <v>433</v>
+      </c>
+      <c r="N50" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" t="s">
+        <v>411</v>
+      </c>
+      <c r="S50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>437</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>308</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>248</v>
+      </c>
+      <c r="K51" t="s">
+        <v>309</v>
+      </c>
+      <c r="L51" t="s">
+        <v>141</v>
+      </c>
+      <c r="M51" t="s">
+        <v>311</v>
+      </c>
+      <c r="N51" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" t="s">
+        <v>411</v>
+      </c>
+      <c r="S51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>439</v>
+      </c>
+      <c r="D52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>308</v>
+      </c>
+      <c r="I52" t="s">
+        <v>440</v>
+      </c>
+      <c r="J52" t="s">
+        <v>248</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="s">
+        <v>433</v>
+      </c>
+      <c r="N52" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" t="s">
+        <v>411</v>
+      </c>
+      <c r="S52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>443</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" t="s">
+        <v>407</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s">
+        <v>308</v>
+      </c>
+      <c r="I53" t="s">
+        <v>212</v>
+      </c>
+      <c r="J53" t="s">
+        <v>267</v>
+      </c>
+      <c r="K53" t="s">
+        <v>334</v>
+      </c>
+      <c r="L53" t="s">
+        <v>444</v>
+      </c>
+      <c r="M53" t="s">
+        <v>335</v>
+      </c>
+      <c r="N53" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" t="s">
+        <v>411</v>
+      </c>
+      <c r="S53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s">
+        <v>308</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>248</v>
+      </c>
+      <c r="K54" t="s">
+        <v>330</v>
+      </c>
+      <c r="L54" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" t="s">
+        <v>331</v>
+      </c>
+      <c r="N54" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" t="s">
+        <v>411</v>
+      </c>
+      <c r="S54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s">
+        <v>308</v>
+      </c>
+      <c r="I55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s">
+        <v>248</v>
+      </c>
+      <c r="K55" t="s">
+        <v>330</v>
+      </c>
+      <c r="L55" t="s">
+        <v>141</v>
+      </c>
+      <c r="M55" t="s">
+        <v>331</v>
+      </c>
+      <c r="N55" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" t="s">
+        <v>411</v>
+      </c>
+      <c r="S55" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>451</v>
+      </c>
+      <c r="D56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>308</v>
+      </c>
+      <c r="I56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s">
+        <v>248</v>
+      </c>
+      <c r="K56" t="s">
+        <v>334</v>
+      </c>
+      <c r="L56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56" t="s">
+        <v>335</v>
+      </c>
+      <c r="N56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" t="s">
+        <v>411</v>
+      </c>
+      <c r="S56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>453</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s">
+        <v>308</v>
+      </c>
+      <c r="I57" t="s">
+        <v>440</v>
+      </c>
+      <c r="J57" t="s">
+        <v>248</v>
+      </c>
+      <c r="K57" t="s">
+        <v>330</v>
+      </c>
+      <c r="L57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M57" t="s">
+        <v>331</v>
+      </c>
+      <c r="N57" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" t="s">
+        <v>411</v>
+      </c>
+      <c r="S57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>456</v>
+      </c>
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>457</v>
+      </c>
+      <c r="D58" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" t="s">
+        <v>212</v>
+      </c>
+      <c r="J58" t="s">
+        <v>267</v>
+      </c>
+      <c r="K58" t="s">
+        <v>346</v>
+      </c>
+      <c r="L58" t="s">
+        <v>458</v>
+      </c>
+      <c r="M58" t="s">
+        <v>347</v>
+      </c>
+      <c r="N58" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" t="s">
+        <v>411</v>
+      </c>
+      <c r="S58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>460</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>461</v>
+      </c>
+      <c r="D59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s">
+        <v>308</v>
+      </c>
+      <c r="I59" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" t="s">
+        <v>248</v>
+      </c>
+      <c r="K59" t="s">
+        <v>353</v>
+      </c>
+      <c r="L59" t="s">
+        <v>462</v>
+      </c>
+      <c r="M59" t="s">
+        <v>354</v>
+      </c>
+      <c r="N59" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" t="s">
+        <v>411</v>
+      </c>
+      <c r="S59" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>464</v>
+      </c>
+      <c r="B60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" t="s">
+        <v>465</v>
+      </c>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" t="s">
+        <v>248</v>
+      </c>
+      <c r="K60" t="s">
+        <v>353</v>
+      </c>
+      <c r="L60" t="s">
+        <v>141</v>
+      </c>
+      <c r="M60" t="s">
+        <v>354</v>
+      </c>
+      <c r="N60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" t="s">
+        <v>411</v>
+      </c>
+      <c r="S60" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" t="s">
+        <v>468</v>
+      </c>
+      <c r="D61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s">
+        <v>308</v>
+      </c>
+      <c r="I61" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" t="s">
+        <v>248</v>
+      </c>
+      <c r="K61" t="s">
+        <v>346</v>
+      </c>
+      <c r="L61" t="s">
+        <v>141</v>
+      </c>
+      <c r="M61" t="s">
+        <v>347</v>
+      </c>
+      <c r="N61" t="s">
+        <v>56</v>
+      </c>
+      <c r="O61" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" t="s">
+        <v>411</v>
+      </c>
+      <c r="S61" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>471</v>
+      </c>
+      <c r="D62" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" t="s">
+        <v>325</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s">
+        <v>308</v>
+      </c>
+      <c r="I62" t="s">
+        <v>440</v>
+      </c>
+      <c r="J62" t="s">
+        <v>248</v>
+      </c>
+      <c r="K62" t="s">
+        <v>353</v>
+      </c>
+      <c r="L62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" t="s">
+        <v>354</v>
+      </c>
+      <c r="N62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" t="s">
+        <v>411</v>
+      </c>
+      <c r="S62" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ62" t="s">
         <v>72</v>
       </c>
     </row>
